--- a/biology/Zoologie/Heliconius_aoede/Heliconius_aoede.xlsx
+++ b/biology/Zoologie/Heliconius_aoede/Heliconius_aoede.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius aoede est une espèce sud-américaine de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago dʼHeliconius aoede est un grand papillon aux ailes allongées et arrondies, de couleur marron avec une ornementation orange, cuivrée ou rouge suivant les sous-espèces. Les ailes antérieures ont une partie basale orange, cuivrée ou rouge et une marque jaune ou blanche séparant la partie marron partiellement ou allant jusqu'à la partie basale orange et aux ailes postérieures ont une ornementation de lignes orange cuivrée ou rouge soulignant les veines, absente chez Heliconius aoede astydamia et Heliconius aoede emmelina.
-Chenille
-La chenille a le corps marron rayé de blanc et orné de scolis blancs, et sa tête est noire[1].
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago dʼHeliconius aoede est un grand papillon aux ailes allongées et arrondies, de couleur marron avec une ornementation orange, cuivrée ou rouge suivant les sous-espèces. Les ailes antérieures ont une partie basale orange, cuivrée ou rouge et une marque jaune ou blanche séparant la partie marron partiellement ou allant jusqu'à la partie basale orange et aux ailes postérieures ont une ornementation de lignes orange cuivrée ou rouge soulignant les veines, absente chez Heliconius aoede astydamia et Heliconius aoede emmelina.
 </t>
         </is>
       </c>
@@ -542,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est répandue dans tout le bassin amazonien : en Guyane, au Guyana, au Suriname, en Colombie, au Venezuela, en Équateur, en Bolivie, au Brésil et au Pérou[2].
-Elle réside dans les forêts, du niveau de la mer jusqu'à 1 300 m d'altitude[1].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille a le corps marron rayé de blanc et orné de scolis blancs, et sa tête est noire.
 </t>
         </is>
       </c>
@@ -574,12 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Passifloraceae, notamment des Dilkea et des Mitostemma[1].
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue dans tout le bassin amazonien : en Guyane, au Guyana, au Suriname, en Colombie, au Venezuela, en Équateur, en Bolivie, au Brésil et au Pérou.
+Elle réside dans les forêts, du niveau de la mer jusqu'à 1 300 m d'altitude.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nom vulgaire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius aoede se nomme en anglais Aoede Longwing.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Passifloraceae, notamment des Dilkea et des Mitostemma.
 </t>
         </is>
       </c>
@@ -636,16 +661,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Nom vulgaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius aoede se nomme en anglais Aoede Longwing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_aoede</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_aoede</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Heliconius aoede a été décrite par l'entomologiste allemand Jacob Hübner en 1813, sous le nom initial de Nereis aoede. Elle a un temps été appelée Neruda aoede[2].
-De nombreuses sous-espèces ont été décrites[2] :
-Heliconius aoede aoede (Hübner, [1813]) — au Brésil.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'espèce Heliconius aoede a été décrite par l'entomologiste allemand Jacob Hübner en 1813, sous le nom initial de Nereis aoede. Elle a un temps été appelée Neruda aoede.
+De nombreuses sous-espèces ont été décrites :
+Heliconius aoede aoede (Hübner, ) — au Brésil.
 Heliconius aoede aliciae (Neukirchen, 2000) — en Équateur.
-Heliconius aoede astydamia (Erichson, [1849]) — au Guyana.
+Heliconius aoede astydamia (Erichson, ) — au Guyana.
 Heliconius aoede auca (Neukirchen, 1997) — en Équateur.
 Heliconius aoede ayacuchensis Neukirchen, 1992 —  au Venezuela.
 Heliconius aoede bartletti (Druce, 1876) — en Colombie et au Pérou.
